--- a/pred_ohlcv/54_21/2020-01-11 ELF ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 ELF ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>31993.73799483492</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -496,7 +496,7 @@
         <v>17369.77739483492</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -782,7 +782,7 @@
         <v>29946.22204841485</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>80643.72416893736</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>80196.91446893736</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>80196.91446893736</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>81132.30596893736</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>106827.5749484149</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>90242.94652789236</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>90242.94652789236</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>149351.5503073698</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>178331.8490073698</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>203400.7758073698</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>214944.9518073699</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>214944.9518073699</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>223687.8165073699</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>527437.5145073698</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>535781.4653073698</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>508356.9021073699</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>516672.9104073698</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>494385.3437073698</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>520449.6358073698</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>532307.2109073699</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>517503.2799073699</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>517503.2799073699</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>517521.2799073699</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>507882.5444073699</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>507882.5444073699</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>483407.6620073699</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>478242.0453073698</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>502387.8680073699</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>502387.8680073699</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>431945.3369073699</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>446583.3093073699</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>444961.3684073699</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>440023.6540073699</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-11 ELF ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 ELF ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>31993.73799483492</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -496,7 +496,7 @@
         <v>17369.77739483492</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>17329.45489483492</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>17031.09459483492</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>27032.68214841485</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -626,7 +626,7 @@
         <v>14171.64994841485</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>15022.97244841485</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>14729.93494841485</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -782,7 +782,7 @@
         <v>29946.22204841485</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -834,7 +834,7 @@
         <v>29330.03724841485</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>29864.19744841485</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>80643.72416893736</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>80196.91446893736</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>80196.91446893736</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>81132.30596893736</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>106827.5749484149</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>90242.94652789236</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>90242.94652789236</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>149351.5503073698</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>178331.8490073698</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>203400.7758073698</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>214944.9518073699</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>214944.9518073699</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>223687.8165073699</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>527437.5145073698</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>535760.2153073698</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>535781.4653073698</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>540232.4019073698</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>508356.9021073699</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>516672.9104073698</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>494385.3437073698</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>520449.6358073698</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>532307.2109073699</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>517503.2799073699</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>517503.2799073699</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>517521.2799073699</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>507882.5444073699</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>507882.5444073699</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>483407.6620073699</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>478242.0453073698</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>502387.8680073699</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>502387.8680073699</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>431945.3369073699</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>446583.3093073699</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
